--- a/build/resources/test/UdemyData.xlsx
+++ b/build/resources/test/UdemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -30,10 +30,10 @@
     <t>dineshkumar.icon@gmail.com</t>
   </si>
   <si>
-    <t>Dinnu@247</t>
+    <t>dineshkumar.icon.dk@gmail.com</t>
   </si>
   <si>
-    <t>dineshkumar.icon.dk@gmail.com</t>
+    <t>Dinnu@247</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,52 +387,88 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -443,7 +479,26 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A12" r:id="rId8"/>
+    <hyperlink ref="A5" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="A11" r:id="rId12"/>
+    <hyperlink ref="B3:B12" r:id="rId13" display="Dinnu@247"/>
+    <hyperlink ref="B3" r:id="rId14"/>
+    <hyperlink ref="B4" r:id="rId15"/>
+    <hyperlink ref="B5" r:id="rId16"/>
+    <hyperlink ref="B6" r:id="rId17"/>
+    <hyperlink ref="B7" r:id="rId18"/>
+    <hyperlink ref="B8" r:id="rId19"/>
+    <hyperlink ref="B9" r:id="rId20"/>
+    <hyperlink ref="B10" r:id="rId21"/>
+    <hyperlink ref="B11" r:id="rId22"/>
+    <hyperlink ref="B12" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/build/resources/test/UdemyData.xlsx
+++ b/build/resources/test/UdemyData.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,17 +488,16 @@
     <hyperlink ref="A7" r:id="rId10"/>
     <hyperlink ref="A9" r:id="rId11"/>
     <hyperlink ref="A11" r:id="rId12"/>
-    <hyperlink ref="B3:B12" r:id="rId13" display="Dinnu@247"/>
-    <hyperlink ref="B3" r:id="rId14"/>
-    <hyperlink ref="B4" r:id="rId15"/>
-    <hyperlink ref="B5" r:id="rId16"/>
+    <hyperlink ref="B3" r:id="rId13"/>
+    <hyperlink ref="B4" r:id="rId14"/>
+    <hyperlink ref="B5" r:id="rId15"/>
+    <hyperlink ref="B7" r:id="rId16"/>
     <hyperlink ref="B6" r:id="rId17"/>
-    <hyperlink ref="B7" r:id="rId18"/>
-    <hyperlink ref="B8" r:id="rId19"/>
-    <hyperlink ref="B9" r:id="rId20"/>
-    <hyperlink ref="B10" r:id="rId21"/>
-    <hyperlink ref="B11" r:id="rId22"/>
-    <hyperlink ref="B12" r:id="rId23"/>
+    <hyperlink ref="B8" r:id="rId18"/>
+    <hyperlink ref="B9" r:id="rId19"/>
+    <hyperlink ref="B10" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
